--- a/Optimization/Risk, return, regulation.xlsx
+++ b/Optimization/Risk, return, regulation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gigan\OneDrive\Desktop\NYU\Fall 2025\Capstone\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA7C993-6706-4C88-A85D-98494DF6F135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2A3F78-295D-4176-B8F9-8C48364B4350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{AA77B884-FDA9-45EC-8726-F6D981D0202A}"/>
   </bookViews>
@@ -995,21 +995,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1030,6 +1015,21 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2034,7 +2034,7 @@
   <dimension ref="B2:X50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2125,7 +2125,7 @@
       <c r="X2" s="11"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="59" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="36">
-        <f>VLOOKUP($C3,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C3,[1]Output!$B$21:$K$39,6,0)</f>
         <v>4.0341360000000002</v>
       </c>
       <c r="I3" s="36">
@@ -2153,7 +2153,7 @@
         <v>3.7464194344500266</v>
       </c>
       <c r="J3" s="20">
-        <f>VLOOKUP($C3,[1]Output!$B$21:$K$39,3,0)</f>
+        <f ca="1">VLOOKUP($C3,[1]Output!$B$21:$K$39,3,0)</f>
         <v>3.8328069999999999E-2</v>
       </c>
       <c r="K3" s="20">
@@ -2161,11 +2161,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="20">
-        <f>J3-K3</f>
+        <f ca="1">J3-K3</f>
         <v>3.8328069999999999E-2</v>
       </c>
       <c r="M3" s="20">
-        <f t="shared" ref="M3:M20" si="0">J3-K3-G3*$C$38*$C$39</f>
+        <f t="shared" ref="M3:M20" ca="1" si="0">J3-K3-G3*$C$38*$C$39</f>
         <v>3.8328069999999999E-2</v>
       </c>
       <c r="N3" s="20">
@@ -2199,7 +2199,7 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B4" s="53"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="37" t="s">
         <v>16</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="40">
-        <f>VLOOKUP($C4,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C4,[1]Output!$B$21:$K$39,6,0)</f>
         <v>22.130617000000001</v>
       </c>
       <c r="I4" s="40">
@@ -2225,7 +2225,7 @@
         <v>13.818760639976208</v>
       </c>
       <c r="J4" s="20">
-        <f>VLOOKUP($C4,[1]Output!$B$21:$K$39,3,0)</f>
+        <f ca="1">VLOOKUP($C4,[1]Output!$B$21:$K$39,3,0)</f>
         <v>4.8006310000000003E-2</v>
       </c>
       <c r="K4" s="20">
@@ -2233,11 +2233,11 @@
         <v>0</v>
       </c>
       <c r="L4" s="20">
-        <f t="shared" ref="L4:L20" si="1">J4-K4</f>
+        <f t="shared" ref="L4:L20" ca="1" si="1">J4-K4</f>
         <v>4.8006310000000003E-2</v>
       </c>
       <c r="M4" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.8006310000000003E-2</v>
       </c>
       <c r="N4" s="20">
@@ -2271,7 +2271,7 @@
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B5" s="53"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="37" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="40">
-        <f>VLOOKUP($C5,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C5,[1]Output!$B$21:$K$39,6,0)</f>
         <v>13.29698</v>
       </c>
       <c r="I5" s="40">
@@ -2297,7 +2297,7 @@
         <v>10.586794105944223</v>
       </c>
       <c r="J5" s="20">
-        <f>VLOOKUP($C5,[1]Output!$B$21:$K$39,3,0)</f>
+        <f ca="1">VLOOKUP($C5,[1]Output!$B$21:$K$39,3,0)</f>
         <v>3.9570809999999998E-2</v>
       </c>
       <c r="K5" s="20">
@@ -2305,11 +2305,11 @@
         <v>1E-3</v>
       </c>
       <c r="L5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3.8570809999999997E-2</v>
       </c>
       <c r="M5" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.8570809999999997E-2</v>
       </c>
       <c r="N5" s="20">
@@ -2343,7 +2343,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B6" s="53"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="41" t="s">
         <v>121</v>
       </c>
@@ -2362,38 +2362,38 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="H6" s="44">
-        <f>VLOOKUP($C6,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C6,[1]Output!$B$21:$K$39,6,0)</f>
         <v>9.7358790000000006</v>
       </c>
       <c r="I6" s="44">
         <f>VLOOKUP($C6,[1]Output!$B$21:$K$39,7,0)/2</f>
         <v>8.3129217878570287</v>
       </c>
-      <c r="J6" s="60">
-        <f>VLOOKUP($C6,[1]Output!$B$21:$K$39,3,0)</f>
+      <c r="J6" s="55">
+        <f ca="1">VLOOKUP($C6,[1]Output!$B$21:$K$39,3,0)</f>
         <v>3.06664E-2</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="55">
         <f>VLOOKUP($C6,[1]Output!$B$21:$K$39,4,0)</f>
         <v>1E-3</v>
       </c>
-      <c r="L6" s="60">
-        <f t="shared" si="1"/>
+      <c r="L6" s="55">
+        <f t="shared" ca="1" si="1"/>
         <v>2.9666399999999999E-2</v>
       </c>
-      <c r="M6" s="60">
-        <f t="shared" si="0"/>
+      <c r="M6" s="55">
+        <f t="shared" ca="1" si="0"/>
         <v>2.7986399999999998E-2</v>
       </c>
-      <c r="N6" s="60">
+      <c r="N6" s="55">
         <f>VLOOKUP($C6,[1]Output!$B$21:$K$39,9,0)</f>
         <v>3.9860723031264055E-2</v>
       </c>
-      <c r="O6" s="60">
+      <c r="O6" s="55">
         <f>VLOOKUP($C6,[1]Output!$B$21:$K$39,8,0)</f>
         <v>4.2435563866043489E-2</v>
       </c>
-      <c r="P6" s="61">
+      <c r="P6" s="56">
         <v>4.1663111615609656E-2</v>
       </c>
       <c r="Q6" s="47">
@@ -2416,28 +2416,28 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="58" t="str">
+      <c r="F7" s="53" t="str">
         <f>VLOOKUP(E7,Regulation!$C$6:$E$25,3,0)</f>
         <v>1A</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="54">
         <f>VLOOKUP(F7,Regulation!$E$6:$F$25,2,0)</f>
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="H7" s="36">
-        <f>VLOOKUP($C7,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C7,[1]Output!$B$21:$K$39,6,0)</f>
         <v>5.4466669999999997</v>
       </c>
       <c r="I7" s="36">
@@ -2445,7 +2445,7 @@
         <v>4.9646858541070547</v>
       </c>
       <c r="J7" s="20">
-        <f>VLOOKUP($C7,[1]Output!$B$21:$K$39,3,0)</f>
+        <f ca="1">VLOOKUP($C7,[1]Output!$B$21:$K$39,3,0)</f>
         <v>4.2274459999999993E-2</v>
       </c>
       <c r="K7" s="20">
@@ -2453,11 +2453,11 @@
         <v>0</v>
       </c>
       <c r="L7" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4.2274459999999993E-2</v>
       </c>
       <c r="M7" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.1634459999999991E-2</v>
       </c>
       <c r="N7" s="20">
@@ -2491,7 +2491,7 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B8" s="55"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="37" t="s">
         <v>123</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="H8" s="40">
-        <f>VLOOKUP($C8,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C8,[1]Output!$B$21:$K$39,6,0)</f>
         <v>7.813707</v>
       </c>
       <c r="I8" s="40">
@@ -2518,7 +2518,7 @@
         <v>6.8397377394723433</v>
       </c>
       <c r="J8" s="20">
-        <f>VLOOKUP($C8,[1]Output!$B$21:$K$39,3,0)</f>
+        <f ca="1">VLOOKUP($C8,[1]Output!$B$21:$K$39,3,0)</f>
         <v>4.3566750000000001E-2</v>
       </c>
       <c r="K8" s="20">
@@ -2526,11 +2526,11 @@
         <v>1E-3</v>
       </c>
       <c r="L8" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4.256675E-2</v>
       </c>
       <c r="M8" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.0886749999999999E-2</v>
       </c>
       <c r="N8" s="20">
@@ -2564,7 +2564,7 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B9" s="55"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="37" t="s">
         <v>124</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="H9" s="40">
-        <f>VLOOKUP($C9,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C9,[1]Output!$B$21:$K$39,6,0)</f>
         <v>10.287673</v>
       </c>
       <c r="I9" s="40">
@@ -2591,7 +2591,7 @@
         <v>8.3414786592650429</v>
       </c>
       <c r="J9" s="20">
-        <f>VLOOKUP($C9,[1]Output!$B$21:$K$39,3,0)</f>
+        <f ca="1">VLOOKUP($C9,[1]Output!$B$21:$K$39,3,0)</f>
         <v>4.8731650000000001E-2</v>
       </c>
       <c r="K9" s="20">
@@ -2599,11 +2599,11 @@
         <v>7.000000000000001E-4</v>
       </c>
       <c r="L9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4.8031650000000002E-2</v>
       </c>
       <c r="M9" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.4751650000000004E-2</v>
       </c>
       <c r="N9" s="20">
@@ -2637,7 +2637,7 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B10" s="55"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="37" t="s">
         <v>125</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1.52E-2</v>
       </c>
       <c r="H10" s="40">
-        <f>VLOOKUP($C10,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C10,[1]Output!$B$21:$K$39,6,0)</f>
         <v>10.474636</v>
       </c>
       <c r="I10" s="40">
@@ -2664,7 +2664,7 @@
         <v>8.2171708865819753</v>
       </c>
       <c r="J10" s="20">
-        <f>VLOOKUP($C10,[1]Output!$B$21:$K$39,3,0)</f>
+        <f ca="1">VLOOKUP($C10,[1]Output!$B$21:$K$39,3,0)</f>
         <v>5.2118029999999996E-2</v>
       </c>
       <c r="K10" s="20">
@@ -2672,11 +2672,11 @@
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="L10" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4.7218029999999994E-2</v>
       </c>
       <c r="M10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.1138029999999992E-2</v>
       </c>
       <c r="N10" s="20">
@@ -2710,7 +2710,7 @@
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B11" s="55"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="37" t="s">
         <v>84</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="H11" s="40">
-        <f>VLOOKUP($C11,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C11,[1]Output!$B$21:$K$39,6,0)</f>
         <v>4.5007529999999996</v>
       </c>
       <c r="I11" s="40">
@@ -2737,7 +2737,7 @@
         <v>3.9338110115775913</v>
       </c>
       <c r="J11" s="20">
-        <f>VLOOKUP($C11,[1]Output!$B$21:$K$39,3,0)</f>
+        <f ca="1">VLOOKUP($C11,[1]Output!$B$21:$K$39,3,0)</f>
         <v>7.0441839999999992E-2</v>
       </c>
       <c r="K11" s="20">
@@ -2745,11 +2745,11 @@
         <v>6.7121951219512197E-3</v>
       </c>
       <c r="L11" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>6.3729644878048775E-2</v>
       </c>
       <c r="M11" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.964964487804877E-2</v>
       </c>
       <c r="N11" s="20">
@@ -2783,7 +2783,7 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B12" s="55"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="37" t="s">
         <v>85</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="H12" s="40">
-        <f>VLOOKUP($C12,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C12,[1]Output!$B$21:$K$39,6,0)</f>
         <v>16.344062999999998</v>
       </c>
       <c r="I12" s="40">
@@ -2810,7 +2810,7 @@
         <v>9.5116975212047663</v>
       </c>
       <c r="J12" s="20">
-        <f>VLOOKUP($C12,[1]Output!$B$21:$K$39,3,0)</f>
+        <f ca="1">VLOOKUP($C12,[1]Output!$B$21:$K$39,3,0)</f>
         <v>7.8691419999999998E-2</v>
       </c>
       <c r="K12" s="20">
@@ -2818,11 +2818,11 @@
         <v>6.7121951219512197E-3</v>
       </c>
       <c r="L12" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.1979224878048781E-2</v>
       </c>
       <c r="M12" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.7899224878048777E-2</v>
       </c>
       <c r="N12" s="20">
@@ -2856,7 +2856,7 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B13" s="55"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="41" t="s">
         <v>126</v>
       </c>
@@ -2875,38 +2875,38 @@
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="H13" s="44">
-        <f>VLOOKUP($C13,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C13,[1]Output!$B$21:$K$39,6,0)</f>
         <v>6.9603400000000004</v>
       </c>
       <c r="I13" s="44">
         <f>VLOOKUP($C13,[1]Output!$B$21:$K$39,7,0)/2</f>
         <v>6.1889832358874335</v>
       </c>
-      <c r="J13" s="60">
-        <f>VLOOKUP($C13,[1]Output!$B$21:$K$39,3,0)</f>
+      <c r="J13" s="55">
+        <f ca="1">VLOOKUP($C13,[1]Output!$B$21:$K$39,3,0)</f>
         <v>3.9210250000000002E-2</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="55">
         <f>VLOOKUP($C13,[1]Output!$B$21:$K$39,4,0)</f>
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="L13" s="60">
-        <f t="shared" si="1"/>
+      <c r="L13" s="55">
+        <f t="shared" ca="1" si="1"/>
         <v>3.8510250000000003E-2</v>
       </c>
-      <c r="M13" s="60">
-        <f t="shared" si="0"/>
+      <c r="M13" s="55">
+        <f t="shared" ca="1" si="0"/>
         <v>3.5230250000000005E-2</v>
       </c>
-      <c r="N13" s="60">
+      <c r="N13" s="55">
         <f>VLOOKUP($C13,[1]Output!$B$21:$K$39,9,0)</f>
         <v>5.9889059527831502E-2</v>
       </c>
-      <c r="O13" s="60">
+      <c r="O13" s="55">
         <f>VLOOKUP($C13,[1]Output!$B$21:$K$39,8,0)</f>
         <v>1.1198991337781239E-2</v>
       </c>
-      <c r="P13" s="61">
+      <c r="P13" s="56">
         <v>2.5806011794796316E-2</v>
       </c>
       <c r="Q13" s="47">
@@ -2929,27 +2929,27 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="58" t="str">
+      <c r="F14" s="53" t="str">
         <f>VLOOKUP(E14,Regulation!$C$6:$E$25,3,0)</f>
         <v>1C</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="54">
         <v>0</v>
       </c>
       <c r="H14" s="36">
-        <f>VLOOKUP($C14,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C14,[1]Output!$B$21:$K$39,6,0)</f>
         <v>7.7926409999999997</v>
       </c>
       <c r="I14" s="36">
@@ -2957,7 +2957,7 @@
         <v>6.7064565111538013</v>
       </c>
       <c r="J14" s="20">
-        <f>VLOOKUP($C14,[1]Output!$B$21:$K$39,3,0)</f>
+        <f ca="1">VLOOKUP($C14,[1]Output!$B$21:$K$39,3,0)</f>
         <v>4.9308810000000002E-2</v>
       </c>
       <c r="K14" s="20">
@@ -2965,11 +2965,11 @@
         <v>1E-3</v>
       </c>
       <c r="L14" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4.8308810000000001E-2</v>
       </c>
       <c r="M14" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.8308810000000001E-2</v>
       </c>
       <c r="N14" s="20">
@@ -3003,7 +3003,7 @@
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B15" s="53"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="37" t="s">
         <v>114</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="40">
-        <f>VLOOKUP($C15,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C15,[1]Output!$B$21:$K$39,6,0)</f>
         <v>4.4344999999999999</v>
       </c>
       <c r="I15" s="40">
@@ -3029,7 +3029,7 @@
         <v>4.1086900210423067</v>
       </c>
       <c r="J15" s="20">
-        <f>VLOOKUP($C15,[1]Output!$B$21:$K$39,3,0)</f>
+        <f ca="1">VLOOKUP($C15,[1]Output!$B$21:$K$39,3,0)</f>
         <v>4.6924659999999993E-2</v>
       </c>
       <c r="K15" s="20">
@@ -3037,11 +3037,11 @@
         <v>1E-3</v>
       </c>
       <c r="L15" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4.5924659999999992E-2</v>
       </c>
       <c r="M15" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.5924659999999992E-2</v>
       </c>
       <c r="N15" s="20">
@@ -3075,7 +3075,7 @@
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B16" s="53"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="41" t="s">
         <v>115</v>
       </c>
@@ -3094,38 +3094,38 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="H16" s="44">
-        <f>VLOOKUP($C16,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C16,[1]Output!$B$21:$K$39,6,0)</f>
         <v>3.5722619999999998</v>
       </c>
       <c r="I16" s="44">
         <f>VLOOKUP($C16,[1]Output!$B$21:$K$39,7,0)/2</f>
         <v>3.2815588370748707</v>
       </c>
-      <c r="J16" s="60">
-        <f>VLOOKUP($C16,[1]Output!$B$21:$K$39,3,0)</f>
+      <c r="J16" s="55">
+        <f ca="1">VLOOKUP($C16,[1]Output!$B$21:$K$39,3,0)</f>
         <v>4.4074989999999994E-2</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="55">
         <f>VLOOKUP($C16,[1]Output!$B$21:$K$39,4,0)</f>
         <v>1E-3</v>
       </c>
-      <c r="L16" s="60">
-        <f t="shared" si="1"/>
+      <c r="L16" s="55">
+        <f t="shared" ca="1" si="1"/>
         <v>4.3074989999999994E-2</v>
       </c>
-      <c r="M16" s="60">
-        <f t="shared" si="0"/>
+      <c r="M16" s="55">
+        <f t="shared" ca="1" si="0"/>
         <v>4.1394989999999993E-2</v>
       </c>
-      <c r="N16" s="60">
+      <c r="N16" s="55">
         <f>VLOOKUP($C16,[1]Output!$B$21:$K$39,9,0)</f>
         <v>5.8158040943127959E-2</v>
       </c>
-      <c r="O16" s="60">
+      <c r="O16" s="55">
         <f>VLOOKUP($C16,[1]Output!$B$21:$K$39,8,0)</f>
         <v>5.4924579308506409E-2</v>
       </c>
-      <c r="P16" s="61">
+      <c r="P16" s="56">
         <v>5.5894617798892876E-2</v>
       </c>
       <c r="Q16" s="47">
@@ -3148,28 +3148,28 @@
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="58" t="str">
+      <c r="F17" s="53" t="str">
         <f>VLOOKUP(E17,Regulation!$C$6:$E$25,3,0)</f>
         <v>1F</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="54">
         <f>VLOOKUP(F17,Regulation!$E$6:$F$25,2,0)</f>
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="H17" s="36">
-        <f>VLOOKUP($C17,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C17,[1]Output!$B$21:$K$39,6,0)</f>
         <v>10.287673</v>
       </c>
       <c r="I17" s="36">
@@ -3177,7 +3177,7 @@
         <v>8.1053679226380968</v>
       </c>
       <c r="J17" s="20">
-        <f>VLOOKUP($C17,[1]Output!$B$21:$K$39,3,0)</f>
+        <f ca="1">VLOOKUP($C17,[1]Output!$B$21:$K$39,3,0)</f>
         <v>5.523231E-2</v>
       </c>
       <c r="K17" s="20">
@@ -3185,11 +3185,11 @@
         <v>7.000000000000001E-4</v>
       </c>
       <c r="L17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>5.4532310000000001E-2</v>
       </c>
       <c r="M17" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>5.1252310000000002E-2</v>
       </c>
       <c r="N17" s="20">
@@ -3223,7 +3223,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B18" s="53"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="37" t="s">
         <v>129</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>1.52E-2</v>
       </c>
       <c r="H18" s="40">
-        <f>VLOOKUP($C18,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C18,[1]Output!$B$21:$K$39,6,0)</f>
         <v>10.474636</v>
       </c>
       <c r="I18" s="40">
@@ -3250,8 +3250,7 @@
         <v>7.9927807681872469</v>
       </c>
       <c r="J18" s="20">
-        <f>VLOOKUP($C18,[1]Output!$B$21:$K$39,3,0)</f>
-        <v>5.8436709999999996E-2</v>
+        <v>6.1436710000000005E-2</v>
       </c>
       <c r="K18" s="20">
         <f>VLOOKUP($C18,[1]Output!$B$21:$K$39,4,0)</f>
@@ -3259,11 +3258,11 @@
       </c>
       <c r="L18" s="20">
         <f t="shared" si="1"/>
-        <v>5.3536709999999994E-2</v>
+        <v>5.6536710000000004E-2</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>4.7456709999999992E-2</v>
+        <v>5.0456710000000002E-2</v>
       </c>
       <c r="N18" s="20">
         <f>VLOOKUP($C18,[1]Output!$B$21:$K$39,9,0)</f>
@@ -3296,7 +3295,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B19" s="53"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="37" t="s">
         <v>132</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v>7.3899999999999993E-2</v>
       </c>
       <c r="H19" s="40">
-        <f>VLOOKUP($C19,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C19,[1]Output!$B$21:$K$39,6,0)</f>
         <v>4.715166</v>
       </c>
       <c r="I19" s="40">
@@ -3323,7 +3322,7 @@
         <v>3.8670080655810657</v>
       </c>
       <c r="J19" s="20">
-        <f>VLOOKUP($C19,[1]Output!$B$21:$K$39,3,0)</f>
+        <f ca="1">VLOOKUP($C19,[1]Output!$B$21:$K$39,3,0)</f>
         <v>7.9908560000000003E-2</v>
       </c>
       <c r="K19" s="20">
@@ -3331,11 +3330,11 @@
         <v>2.4160975609756094E-2</v>
       </c>
       <c r="L19" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>5.5747584390243909E-2</v>
       </c>
       <c r="M19" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2.618758439024391E-2</v>
       </c>
       <c r="N19" s="20">
@@ -3369,7 +3368,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B20" s="53"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="37" t="s">
         <v>13</v>
       </c>
@@ -3388,7 +3387,7 @@
         <v>6.8000000000000005E-3</v>
       </c>
       <c r="H20" s="40">
-        <f>VLOOKUP($C20,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C20,[1]Output!$B$21:$K$39,6,0)</f>
         <v>7.7222470000000003</v>
       </c>
       <c r="I20" s="40">
@@ -3396,7 +3395,7 @@
         <v>6.3666743917403208</v>
       </c>
       <c r="J20" s="20">
-        <f>VLOOKUP($C20,[1]Output!$B$21:$K$39,3,0)</f>
+        <f ca="1">VLOOKUP($C20,[1]Output!$B$21:$K$39,3,0)</f>
         <v>4.8954639999999994E-2</v>
       </c>
       <c r="K20" s="20">
@@ -3404,11 +3403,11 @@
         <v>1E-3</v>
       </c>
       <c r="L20" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4.7954639999999993E-2</v>
       </c>
       <c r="M20" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4.5234639999999993E-2</v>
       </c>
       <c r="N20" s="20">
@@ -3442,7 +3441,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B21" s="53"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="41" t="s">
         <v>14</v>
       </c>
@@ -3461,38 +3460,38 @@
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="H21" s="44">
-        <f>VLOOKUP($C21,[1]Output!$B$21:$K$39,6,0)</f>
+        <f ca="1">VLOOKUP($C21,[1]Output!$B$21:$K$39,6,0)</f>
         <v>4.4085919999999996</v>
       </c>
       <c r="I21" s="44">
         <f>VLOOKUP($C21,[1]Output!$B$21:$K$39,7,0)/2</f>
         <v>4.1037512305205741</v>
       </c>
-      <c r="J21" s="60">
-        <f>VLOOKUP($C21,[1]Output!$B$21:$K$39,3,0)</f>
+      <c r="J21" s="55">
+        <f ca="1">VLOOKUP($C21,[1]Output!$B$21:$K$39,3,0)</f>
         <v>4.756515E-2</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K21" s="55">
         <f>VLOOKUP($C21,[1]Output!$B$21:$K$39,4,0)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="60">
-        <f>J21-K21</f>
+      <c r="L21" s="55">
+        <f ca="1">J21-K21</f>
         <v>4.756515E-2</v>
       </c>
-      <c r="M21" s="60">
-        <f>J21-K21-G21*$C$38*$C$39</f>
+      <c r="M21" s="55">
+        <f ca="1">J21-K21-G21*$C$38*$C$39</f>
         <v>4.3965150000000001E-2</v>
       </c>
-      <c r="N21" s="60">
+      <c r="N21" s="55">
         <f>VLOOKUP($C21,[1]Output!$B$21:$K$39,9,0)</f>
         <v>0.13147671067656097</v>
       </c>
-      <c r="O21" s="60">
+      <c r="O21" s="55">
         <f>VLOOKUP($C21,[1]Output!$B$21:$K$39,8,0)</f>
         <v>6.6165563409512532E-2</v>
       </c>
-      <c r="P21" s="61">
+      <c r="P21" s="56">
         <v>8.5758907589627065E-2</v>
       </c>
       <c r="Q21" s="47">
@@ -3515,37 +3514,37 @@
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="59">
+      <c r="G22" s="54">
         <v>0.3</v>
       </c>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
       <c r="J22" s="20">
-        <v>6.9800000000000001E-2</v>
+        <v>9.6763011044683683E-2</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20">
         <f t="shared" ref="L22:L23" si="2">J22-K22</f>
-        <v>6.9800000000000001E-2</v>
+        <v>9.6763011044683683E-2</v>
       </c>
       <c r="M22" s="20">
         <f>J22-K22-G22*$C$39</f>
-        <v>3.9800000000000002E-2</v>
+        <v>6.6763011044683684E-2</v>
       </c>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
@@ -3572,7 +3571,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B23" s="56"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="41" t="s">
         <v>110</v>
       </c>
@@ -3590,21 +3589,21 @@
       </c>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
-      <c r="J23" s="60">
+      <c r="J23" s="55">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60">
+      <c r="K23" s="55"/>
+      <c r="L23" s="55">
         <f t="shared" si="2"/>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="M23" s="60">
+      <c r="M23" s="55">
         <f>J23-K23-G23*$C$39</f>
         <v>2.4E-2</v>
       </c>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="63">
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="58">
         <v>0.17459992008775033</v>
       </c>
       <c r="Q23" s="49">
